--- a/resource_api/raporlar/dosyalar/Yukleme-Yil.xlsx
+++ b/resource_api/raporlar/dosyalar/Yukleme-Yil.xlsx
@@ -447,25 +447,25 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imperial Homes</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>352726.19</v>
+        <v>118689.21</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>424266.19</v>
+        <v>126382.21</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -474,52 +474,52 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>226876.31</v>
+        <v>62632.47</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>250487.31</v>
+        <v>85132.47</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atlanta - Stone Mountain</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>163980.85</v>
+        <v>60006.15</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>237730.85</v>
+        <v>62211.05</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>185472.15</v>
+        <v>57830.24</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>185472.15</v>
+        <v>59198.24</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Prim Rose - Ghana</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>147170.42</v>
+        <v>40853.55</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>169880.42</v>
+        <v>55353.55</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bennis - Morocco</t>
+          <t>Carl Max - Ghana</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -546,16 +546,16 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>107066.39</v>
+        <v>45677.18</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>124591.39</v>
+        <v>52477.18</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>115004.45</v>
+        <v>36719.94</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>119598.57</v>
+        <v>38391.05</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Bigeni - Malta</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>88272.09</v>
+        <v>36277.65</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>117497.09</v>
+        <v>38047.65</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Yosof - Oman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -600,34 +600,34 @@
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>70117.57000000001</v>
+        <v>32480</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>93617.57000000001</v>
+        <v>35680</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Villo Home - USA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>68309.83</v>
+        <v>27600.26</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>75398.69</v>
+        <v>35100.26</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hamad - Oman</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>57262.4</v>
+        <v>30081.67</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>64462.4</v>
+        <v>33731.67</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>Atu - Ghana</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -654,34 +654,34 @@
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>59322.49</v>
+        <v>30160.6</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>62745.99</v>
+        <v>33660.6</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ata Sab. - Kuwait</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>57202.09</v>
+        <v>26244.96</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>61102.09</v>
+        <v>33524.23</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bruce - USA</t>
+          <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>45627.85</v>
+        <v>32020.64</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>59927.85</v>
+        <v>32020.64</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>44055.36</v>
+        <v>31647.75</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>52005.36</v>
+        <v>31647.75</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Branislav Mikulovsky - Slovakia</t>
+          <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>50692.48</v>
+        <v>27686.1</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>50162.48</v>
+        <v>31336.1</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>Franchesta - USA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -744,34 +744,34 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>30602.14</v>
+        <v>31252.8</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>50052.14</v>
+        <v>31252.8</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Atlanta - Stone Mountain</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>48810.17</v>
+        <v>15815.91</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>48810.17</v>
+        <v>30015.91</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>David, PDG - Australia</t>
+          <t>Cem Peker</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>41832.27</v>
+        <v>28802.48</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>47182.27</v>
+        <v>28802.48</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tracy - AU</t>
+          <t>Esi Okyere - Ghana</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>38281.03</v>
+        <v>22746.86</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>46661.03</v>
+        <v>26346.86</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Roland - AU</t>
+          <t>Bruno Perre - France</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>28377.12</v>
+        <v>19421.71</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>46377.12</v>
+        <v>25143.71</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wood - Russia</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -834,34 +834,34 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>43005</v>
+        <v>21553.38</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>43005</v>
+        <v>24700.89</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ben Persell Thompson - UK</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>40460</v>
+        <v>20321.67</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>41588</v>
+        <v>20321.67</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sheila Darkwa - Ghana</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>32686.68</v>
+        <v>17542.99</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>39686.68</v>
+        <v>19917.99</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rakeen - Qatar</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -888,34 +888,34 @@
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>34675.2</v>
+        <v>16260.99</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>38525.2</v>
+        <v>18560.99</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>36002.88</v>
+        <v>17105.04</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>36002.88</v>
+        <v>17105.04</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Atu - Ghana</t>
+          <t>Oday Mosalam - Germany</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>31982.5</v>
+        <v>14270.65</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>34883</v>
+        <v>15651.92</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BKF - USA</t>
+          <t>Ante Drazic - HR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -942,34 +942,34 @@
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>35825.93</v>
+        <v>12350.24</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>34825.93</v>
+        <v>12350.24</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t>Tracy - AU</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>24882.82</v>
+        <v>11563.06</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>32382.82</v>
+        <v>11563.06</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Porcemar - Venezuela</t>
+          <t>Sean - MALTA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>23057.4</v>
+        <v>10161.7</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>30707.4</v>
+        <v>10361.7</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Branislav Mikulovsky - Slovakia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>27589.23</v>
+        <v>9926.370000000001</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>28442.19</v>
+        <v>9391.370000000001</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Emily - Singapore</t>
+          <t>Thomas Gebing - DE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1014,52 +1014,52 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>24361.16</v>
+        <v>6269.1</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>27311.16</v>
+        <v>8889.1</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>24014.51</v>
+        <v>7221.68</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>24014.51</v>
+        <v>7221.68</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C35" s="7" t="n">
-        <v>23528.51</v>
+        <v>6227.5</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>23528.51</v>
+        <v>6227.5</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Donald Gorski - USA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1068,34 +1068,34 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>17153.8</v>
+        <v>5356.58</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>21853.8</v>
+        <v>5356.58</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Hantaş Mermer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C37" s="7" t="n">
-        <v>12002.52</v>
+        <v>4463.43</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>20502.52</v>
+        <v>4463.43</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Ds Antik Mermer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1104,106 +1104,106 @@
         </is>
       </c>
       <c r="C38" s="7" t="n">
-        <v>19618.88</v>
+        <v>2288.36</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>19618.88</v>
+        <v>2288.36</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Appia Marmi - Italy</t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C39" s="7" t="n">
-        <v>18967.83</v>
+        <v>2132.83</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>18967.83</v>
+        <v>2132.83</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kusgölü </t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C40" s="7" t="n">
-        <v>18887.64</v>
+        <v>2107.56</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>18887.64</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İç Piyasa</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C41" s="7" t="n">
-        <v>18368.36</v>
+        <v>1762</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>18368.36</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Bilgihan - Turkey</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C42" s="7" t="n">
-        <v>16003.05</v>
+        <v>1588.84</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>18193.05</v>
+        <v>1588.84</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sherzod Tairov - Kazakhstan</t>
+          <t>Sanya Dogaltas - Turkey</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>16866</v>
+        <v>1554</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>18000</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Angelo - Saint Martin</t>
+          <t>Brent Losey - USA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1212,16 +1212,16 @@
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>11481.48</v>
+        <v>567.16</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>17781.48</v>
+        <v>1503.98</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Yer Ev Dekor</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1230,16 +1230,16 @@
         </is>
       </c>
       <c r="C45" s="7" t="n">
-        <v>17614.53</v>
+        <v>1204.27</v>
       </c>
       <c r="D45" s="7" t="n">
-        <v>17614.53</v>
+        <v>1204.27</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zulfia - Russia</t>
+          <t>BKF - USA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="C46" s="7" t="n">
-        <v>17298.96</v>
+        <v>962.9400000000001</v>
       </c>
       <c r="D46" s="7" t="n">
-        <v>17298.96</v>
+        <v>962.9400000000001</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Hisarli Mermer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1266,34 +1266,34 @@
         </is>
       </c>
       <c r="C47" s="7" t="n">
-        <v>17163.84</v>
+        <v>832.23</v>
       </c>
       <c r="D47" s="7" t="n">
-        <v>17163.84</v>
+        <v>832.23</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Allen, VK - Oman</t>
+          <t>Muhammed - Turkey</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C48" s="7" t="n">
-        <v>15067.03</v>
+        <v>703.26</v>
       </c>
       <c r="D48" s="7" t="n">
-        <v>16467.03</v>
+        <v>703.26</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>John Kwame Boateng - Ghana</t>
+          <t>Manhal Najjar - Dubai</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1302,34 +1302,34 @@
         </is>
       </c>
       <c r="C49" s="7" t="n">
-        <v>12360</v>
+        <v>650</v>
       </c>
       <c r="D49" s="7" t="n">
-        <v>16030</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>MARBLESHOP - Turkey</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C50" s="7" t="n">
-        <v>14110.9</v>
+        <v>528.96</v>
       </c>
       <c r="D50" s="7" t="n">
-        <v>15910.9</v>
+        <v>528.96</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brett, UHA - USA</t>
+          <t>Sam - Ghana</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1338,725 +1338,207 @@
         </is>
       </c>
       <c r="C51" s="7" t="n">
-        <v>6659.1</v>
+        <v>500</v>
       </c>
       <c r="D51" s="7" t="n">
-        <v>14759.1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ian G. Randolph - Ghana</t>
+          <t>Cami - Turkey</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C52" s="7" t="n">
-        <v>14735.46</v>
+        <v>396.42</v>
       </c>
       <c r="D52" s="7" t="n">
-        <v>14735.46</v>
+        <v>396.42</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Veysi &amp; Assham - Libya</t>
+          <t>Orhan Bektaş - Turkey</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="C53" s="7" t="n">
-        <v>14511.2</v>
+        <v>318.16</v>
       </c>
       <c r="D53" s="7" t="n">
-        <v>14511.2</v>
+        <v>318.16</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Marteen Rubino - USA</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C54" s="7" t="n">
-        <v>6292.7</v>
-      </c>
-      <c r="D54" s="7" t="n">
-        <v>14227.11</v>
-      </c>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ilka - italy</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C55" s="7" t="n">
-        <v>9003.120000000001</v>
-      </c>
-      <c r="D55" s="7" t="n">
-        <v>13173.12</v>
+      <c r="C55" s="8" t="n">
+        <v>1013339.5</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>1136573.38</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ahmed Alghunaim - Kuwait</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="n">
-        <v>10204.03</v>
-      </c>
-      <c r="D56" s="7" t="n">
-        <v>12804.03</v>
-      </c>
+      <c r="C56" s="7" t="n"/>
+      <c r="D56" s="7" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Stolp Agni - Poland</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C57" s="7" t="n">
-        <v>10162.79</v>
-      </c>
-      <c r="D57" s="7" t="n">
-        <v>10162.79</v>
-      </c>
+      <c r="C57" s="7" t="n"/>
+      <c r="D57" s="7" t="n"/>
     </row>
     <row r="58" ht="18" customHeight="1">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Reşat Bey, Nela Mad. - Turkey</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="n">
-        <v>9948.389999999999</v>
-      </c>
-      <c r="D58" s="7" t="n">
-        <v>9948.389999999999</v>
-      </c>
+      <c r="C58" s="7" t="n"/>
+      <c r="D58" s="7" t="n"/>
     </row>
     <row r="59" ht="18" customHeight="1">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Yer Ev Dekor</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C59" s="7" t="n">
-        <v>9331.290000000001</v>
-      </c>
-      <c r="D59" s="7" t="n">
-        <v>9331.290000000001</v>
-      </c>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
     </row>
     <row r="60" ht="18" customHeight="1">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Hamza Boumaza - Algeria</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C60" s="7" t="n">
-        <v>6675.84</v>
-      </c>
-      <c r="D60" s="7" t="n">
-        <v>8175.84</v>
-      </c>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
     </row>
     <row r="61" ht="18" customHeight="1">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C61" s="7" t="n">
-        <v>5775.16</v>
-      </c>
-      <c r="D61" s="7" t="n">
-        <v>6053.42</v>
-      </c>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
     </row>
     <row r="62" ht="18" customHeight="1">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Cavit - Turkey</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="n">
-        <v>5208.76</v>
-      </c>
-      <c r="D62" s="7" t="n">
-        <v>5208.76</v>
-      </c>
+      <c r="C62" s="7" t="n"/>
+      <c r="D62" s="7" t="n"/>
     </row>
     <row r="63" ht="18" customHeight="1">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Kent Mermer</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C63" s="7" t="n">
-        <v>5137.52</v>
-      </c>
-      <c r="D63" s="7" t="n">
-        <v>5137.52</v>
-      </c>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
     </row>
     <row r="64" ht="18" customHeight="1">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C64" s="7" t="n">
-        <v>5097.51</v>
-      </c>
-      <c r="D64" s="7" t="n">
-        <v>5097.51</v>
-      </c>
+      <c r="C64" s="7" t="n"/>
+      <c r="D64" s="7" t="n"/>
     </row>
     <row r="65" ht="18" customHeight="1">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Dilamar Mermer</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C65" s="7" t="n">
-        <v>4709.25</v>
-      </c>
-      <c r="D65" s="7" t="n">
-        <v>4709.25</v>
-      </c>
+      <c r="C65" s="7" t="n"/>
+      <c r="D65" s="7" t="n"/>
     </row>
     <row r="66" ht="18" customHeight="1">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Gregory Dean - Guyana</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C66" s="7" t="n">
-        <v>334.08</v>
-      </c>
-      <c r="D66" s="7" t="n">
-        <v>4634.08</v>
-      </c>
+      <c r="C66" s="7" t="n"/>
+      <c r="D66" s="7" t="n"/>
     </row>
     <row r="67" ht="18" customHeight="1">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Amparo - Spain</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C67" s="7" t="n">
-        <v>4394</v>
-      </c>
-      <c r="D67" s="7" t="n">
-        <v>4394</v>
-      </c>
+      <c r="C67" s="7" t="n"/>
+      <c r="D67" s="7" t="n"/>
     </row>
     <row r="68" ht="18" customHeight="1">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Brent Losey - USA</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C68" s="7" t="n">
-        <v>3092.8</v>
-      </c>
-      <c r="D68" s="7" t="n">
-        <v>4367.81</v>
-      </c>
+      <c r="C68" s="7" t="n"/>
+      <c r="D68" s="7" t="n"/>
     </row>
     <row r="69" ht="18" customHeight="1">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Keith Tabor - USA</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C69" s="7" t="n">
-        <v>3256.83</v>
-      </c>
-      <c r="D69" s="7" t="n">
-        <v>4280.28</v>
-      </c>
+      <c r="C69" s="7" t="n"/>
+      <c r="D69" s="7" t="n"/>
     </row>
     <row r="70" ht="18" customHeight="1">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Lissa - Greece</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C70" s="7" t="n">
-        <v>2915</v>
-      </c>
-      <c r="D70" s="7" t="n">
-        <v>4175</v>
-      </c>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
     </row>
     <row r="71" ht="18" customHeight="1">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Mahmoud - USA</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C71" s="7" t="n">
-        <v>1625.75</v>
-      </c>
-      <c r="D71" s="7" t="n">
-        <v>4096.35</v>
-      </c>
+      <c r="C71" s="7" t="n"/>
+      <c r="D71" s="7" t="n"/>
     </row>
     <row r="72" ht="18" customHeight="1">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Salih - Turkey</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C72" s="7" t="n">
-        <v>3423.98</v>
-      </c>
-      <c r="D72" s="7" t="n">
-        <v>3423.98</v>
-      </c>
+      <c r="C72" s="7" t="n"/>
+      <c r="D72" s="7" t="n"/>
     </row>
     <row r="73" ht="18" customHeight="1">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Senyo Hosi - Ghana</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C73" s="7" t="n">
-        <v>3157.5</v>
-      </c>
-      <c r="D73" s="7" t="n">
-        <v>3157.5</v>
-      </c>
+      <c r="C73" s="7" t="n"/>
+      <c r="D73" s="7" t="n"/>
     </row>
     <row r="74" ht="18" customHeight="1">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Bens Stone</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C74" s="7" t="n">
-        <v>2867.1</v>
-      </c>
-      <c r="D74" s="7" t="n">
-        <v>2867.1</v>
-      </c>
+      <c r="C74" s="7" t="n"/>
+      <c r="D74" s="7" t="n"/>
     </row>
     <row r="75" ht="18" customHeight="1">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Shane - USA</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C75" s="7" t="n">
-        <v>1820</v>
-      </c>
-      <c r="D75" s="7" t="n">
-        <v>2690</v>
-      </c>
+      <c r="C75" s="7" t="n"/>
+      <c r="D75" s="7" t="n"/>
     </row>
     <row r="76" ht="18" customHeight="1">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Jacob Tyroller- USA</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C76" s="7" t="n">
-        <v>2372.46</v>
-      </c>
-      <c r="D76" s="7" t="n">
-        <v>2558.99</v>
-      </c>
+      <c r="C76" s="7" t="n"/>
+      <c r="D76" s="7" t="n"/>
     </row>
     <row r="77" ht="18" customHeight="1">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Gökçe - Turkey</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C77" s="7" t="n">
-        <v>1864.1</v>
-      </c>
-      <c r="D77" s="7" t="n">
-        <v>2217.04</v>
-      </c>
+      <c r="C77" s="7" t="n"/>
+      <c r="D77" s="7" t="n"/>
     </row>
     <row r="78" ht="18" customHeight="1">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Amulya - USA</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C78" s="7" t="n">
-        <v>962.9</v>
-      </c>
-      <c r="D78" s="7" t="n">
-        <v>2162.9</v>
-      </c>
+      <c r="C78" s="7" t="n"/>
+      <c r="D78" s="7" t="n"/>
     </row>
     <row r="79" ht="18" customHeight="1">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Valerie Alaimo - USA</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C79" s="7" t="n">
-        <v>1355.7</v>
-      </c>
-      <c r="D79" s="7" t="n">
-        <v>1975.29</v>
-      </c>
+      <c r="C79" s="7" t="n"/>
+      <c r="D79" s="7" t="n"/>
     </row>
     <row r="80" ht="18" customHeight="1">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Ömer Çerkeş</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C80" s="7" t="n">
-        <v>1506.41</v>
-      </c>
-      <c r="D80" s="7" t="n">
-        <v>1506.41</v>
-      </c>
+      <c r="C80" s="7" t="n"/>
+      <c r="D80" s="7" t="n"/>
     </row>
     <row r="81" ht="18" customHeight="1">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Daniela, OLI - Austria</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C81" s="7" t="n">
-        <v>1270.1</v>
-      </c>
-      <c r="D81" s="7" t="n">
-        <v>1270.1</v>
-      </c>
+      <c r="C81" s="7" t="n"/>
+      <c r="D81" s="7" t="n"/>
     </row>
     <row r="82" ht="18" customHeight="1">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Bethany Bristow - USA</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C82" s="7" t="n">
-        <v>650</v>
-      </c>
-      <c r="D82" s="7" t="n">
-        <v>1150</v>
-      </c>
+      <c r="C82" s="7" t="n"/>
+      <c r="D82" s="7" t="n"/>
     </row>
     <row r="83" ht="18" customHeight="1">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Beyzanur Mermer</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C83" s="7" t="n">
-        <v>1138.5</v>
-      </c>
-      <c r="D83" s="7" t="n">
-        <v>1138.5</v>
-      </c>
+      <c r="C83" s="7" t="n"/>
+      <c r="D83" s="7" t="n"/>
     </row>
     <row r="84" ht="18" customHeight="1">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Hantaş Mermer</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C84" s="7" t="n">
-        <v>952.6799999999999</v>
-      </c>
-      <c r="D84" s="7" t="n">
-        <v>952.6799999999999</v>
-      </c>
+      <c r="C84" s="7" t="n"/>
+      <c r="D84" s="7" t="n"/>
     </row>
     <row r="85" ht="18" customHeight="1">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Tarik Zubi - Israel</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C85" s="7" t="n">
-        <v>400</v>
-      </c>
-      <c r="D85" s="7" t="n">
-        <v>950</v>
-      </c>
+      <c r="C85" s="7" t="n"/>
+      <c r="D85" s="7" t="n"/>
     </row>
     <row r="86" ht="18" customHeight="1">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Courtney Adams - USA</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C86" s="7" t="n">
-        <v>400</v>
-      </c>
-      <c r="D86" s="7" t="n">
-        <v>828</v>
-      </c>
+      <c r="C86" s="7" t="n"/>
+      <c r="D86" s="7" t="n"/>
     </row>
     <row r="87" ht="18" customHeight="1">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Thuy Bui - USA</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C87" s="7" t="n">
-        <v>360</v>
-      </c>
-      <c r="D87" s="7" t="n">
-        <v>760</v>
-      </c>
+      <c r="C87" s="7" t="n"/>
+      <c r="D87" s="7" t="n"/>
     </row>
     <row r="88" ht="18" customHeight="1">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Rakmer - Turkey</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C88" s="7" t="n">
-        <v>734.54</v>
-      </c>
-      <c r="D88" s="7" t="n">
-        <v>734.54</v>
-      </c>
+      <c r="C88" s="7" t="n"/>
+      <c r="D88" s="7" t="n"/>
     </row>
     <row r="89" ht="18" customHeight="1">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Darius Kazenas - Lithuania</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C89" s="7" t="n">
-        <v>240</v>
-      </c>
-      <c r="D89" s="7" t="n">
-        <v>240</v>
-      </c>
+      <c r="C89" s="7" t="n"/>
+      <c r="D89" s="7" t="n"/>
     </row>
     <row r="90" ht="18" customHeight="1">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Yazit, Bekisoglu</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>İç Piyasa</t>
-        </is>
-      </c>
-      <c r="C90" s="7" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="D90" s="7" t="n">
-        <v>160.2</v>
-      </c>
+      <c r="C90" s="7" t="n"/>
+      <c r="D90" s="7" t="n"/>
     </row>
     <row r="91" ht="18" customHeight="1">
       <c r="C91" s="7" t="n"/>
       <c r="D91" s="7" t="n"/>
     </row>
     <row r="92" ht="18" customHeight="1">
-      <c r="C92" s="8" t="n">
-        <v>2836805.04</v>
-      </c>
-      <c r="D92" s="8" t="n">
-        <v>3300316.769999999</v>
-      </c>
+      <c r="C92" s="7" t="n"/>
+      <c r="D92" s="7" t="n"/>
     </row>
     <row r="93" ht="18" customHeight="1">
       <c r="C93" s="7" t="n"/>
